--- a/WY_2026/20260222report_table2.xlsx
+++ b/WY_2026/20260222report_table2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\paperwork\0_UCSB_DWR_Project\2026_RT_Reports\20260222_RT_report\ASO_BiasCorrect_RT_CanAdj_rcn_wCCR_nofscamskSens_UseThis\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\SWE\Sierras\paperwork\0_UCSB_DWR_Project\2026_RT_Reports\20260222_RT_report\ASO_BiasCorrect_RT_CanAdj_rcn_wCCR_nofscamskSens_UseThis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A2137-D534-4A1B-AED1-02F2D86F3D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF5E773-5A51-4EF3-A861-A3CD4A82EA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{84CB1CBC-D665-4D31-BC33-4E131D8732E3}"/>
   </bookViews>
@@ -1347,13 +1347,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E1CA9A-FC6A-41B5-8E79-8EC940EE6F6D}">
   <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:A113"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.53125" customWidth="1"/>
+    <col min="3" max="3" width="11.53125" customWidth="1"/>
+    <col min="4" max="4" width="11.06640625" customWidth="1"/>
+    <col min="5" max="5" width="10.53125" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.86328125" customWidth="1"/>
+    <col min="10" max="10" width="10.53125" customWidth="1"/>
+    <col min="11" max="11" width="10.9296875" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
